--- a/Editor/Bin/Excel/Character/Player.xlsx
+++ b/Editor/Bin/Excel/Character/Player.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB5D35D1-14AA-45F4-B85C-A6F3E5476BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE32B1C3-300C-4BD1-AAB3-861C13AB8ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/Editor/Bin/Excel/Character/Player.xlsx
+++ b/Editor/Bin/Excel/Character/Player.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE32B1C3-300C-4BD1-AAB3-861C13AB8ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20933016-100A-4AE9-AF8F-395736DDE957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>타입</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>이동속도</t>
-  </si>
-  <si>
-    <t>공격력</t>
   </si>
 </sst>
 </file>
@@ -403,7 +400,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -429,16 +426,11 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
